--- a/commodity.xlsx
+++ b/commodity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{6AE083CF-99B3-4658-A82B-D08EB360D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6A5E8FB-F55B-4587-B5A8-B6A25490B235}"/>
+  <xr:revisionPtr revIDLastSave="437" documentId="8_{6AE083CF-99B3-4658-A82B-D08EB360D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B35C651-8D01-4353-8EA5-6936FB540034}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DDA25069-BBE2-4CBB-9E74-D9197BD75512}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -173,7 +173,6 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -231,7 +230,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,12 +285,6 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -640,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BD7D1F-01C3-4200-B361-0EBB7B079C78}">
   <dimension ref="A1:AC809"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,90 +742,90 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45006</v>
+        <v>45007</v>
       </c>
-      <c r="B2" s="4">
-        <v>75.11</v>
+      <c r="B2" s="9">
+        <v>76.25</v>
       </c>
-      <c r="C2" s="3">
-        <v>3.5143329658213762E-2</v>
+      <c r="C2" s="8">
+        <v>1.5177739315670458E-2</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.33126550868486193</v>
+      <c r="D2" s="8">
+        <v>0.35147110953562422</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="9">
         <v>4.6923000000000004</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="8">
         <v>1.3247621878715758</v>
       </c>
-      <c r="H2" s="4">
-        <v>5.2443999999999997</v>
+      <c r="H2" s="9">
+        <v>5.2648000000000001</v>
       </c>
-      <c r="I2" s="3">
-        <v>-4.3837078544606278E-4</v>
+      <c r="I2" s="8">
+        <v>3.8898634734192417E-3</v>
       </c>
-      <c r="J2" s="3">
-        <v>0.94792556550160723</v>
+      <c r="J2" s="8">
+        <v>0.9555027300077914</v>
       </c>
-      <c r="K2" s="4">
-        <v>2.8957277992582786</v>
+      <c r="K2" s="9">
+        <v>2.9471424078443467</v>
       </c>
-      <c r="L2" s="3">
-        <v>3.1528039917315231E-2</v>
+      <c r="L2" s="8">
+        <v>1.7755332044413041E-2</v>
       </c>
-      <c r="M2" s="3">
-        <v>2.2639419933006288</v>
+      <c r="M2" s="8">
+        <v>2.3218943671653847</v>
       </c>
-      <c r="N2" s="4">
-        <v>1.6204216436371892</v>
+      <c r="N2" s="9">
+        <v>1.5921524482531297</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="9">
         <v>3.0471999999999997</v>
       </c>
-      <c r="P2" s="4">
-        <v>3.1528039917315231E-2</v>
+      <c r="P2" s="9">
+        <v>1.7755332044413041E-2</v>
       </c>
-      <c r="Q2" s="3">
-        <v>-6.578632725269995E-2</v>
+      <c r="Q2" s="8">
+        <v>-4.8030995208286908E-2</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="8">
         <v>2.7970836734693876</v>
       </c>
-      <c r="S2" s="3">
-        <v>-4.9708650807863353E-2</v>
+      <c r="S2" s="8">
+        <v>-3.2835912364023723E-2</v>
       </c>
-      <c r="T2" s="4">
-        <v>3.1528039917315231E-2</v>
+      <c r="T2" s="9">
+        <v>1.7755332044413041E-2</v>
       </c>
-      <c r="U2" s="3">
-        <v>-5.376672962746698E-2</v>
+      <c r="U2" s="8">
+        <v>-3.6011397583053939E-2</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="19">
+      <c r="X2" s="8">
         <v>5.6440999999999999</v>
       </c>
-      <c r="Y2" s="20">
+      <c r="Y2" s="9">
         <v>0</v>
       </c>
-      <c r="Z2" s="20">
+      <c r="Z2" s="9">
         <v>1.2039517357179044</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="9">
         <v>5.6082999999999998</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="9">
         <v>0</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="9">
         <v>1.29013027094725</v>
       </c>
     </row>
@@ -25857,22 +25850,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{1F2D97BA-8919-4237-B5E0-0E7BD058DBF9}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>W1</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{86690100-8753-461D-B231-8D65B6ACF4D7}">
             <x14:iconSet iconSet="3Triangles">
@@ -25905,6 +25882,22 @@
           </x14:cfRule>
           <xm:sqref>T1:V1</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{1F2D97BA-8919-4237-B5E0-0E7BD058DBF9}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>W1</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/commodity.xlsx
+++ b/commodity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25453b31f5bbcef5/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="478" documentId="8_{6AE083CF-99B3-4658-A82B-D08EB360D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F932FF68-F393-4CA9-8677-7E0B5FF08355}"/>
+  <xr:revisionPtr revIDLastSave="480" documentId="8_{6AE083CF-99B3-4658-A82B-D08EB360D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11A1582F-D2BA-4841-A740-575A71658FA9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DDA25069-BBE2-4CBB-9E74-D9197BD75512}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDA25069-BBE2-4CBB-9E74-D9197BD75512}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Brent</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>% Acum Ult Atualização Preço - OCA1 Barcarena</t>
-  </si>
-  <si>
-    <t>Sinalização de Aumento</t>
   </si>
 </sst>
 </file>
@@ -1778,24 +1775,24 @@
   <dimension ref="A1:AC808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="16" max="17" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" customWidth="1"/>
-    <col min="21" max="21" width="17.5546875" customWidth="1"/>
-    <col min="22" max="22" width="24.44140625" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" customWidth="1"/>
-    <col min="28" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="16" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="53.4" customHeight="1">
+    <row r="1" spans="1:29" ht="53.45" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1886,7 +1883,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="B2" s="7">
         <v>74.78</v>
@@ -1974,180 +1971,66 @@
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="1">
-        <v>45011</v>
-      </c>
-      <c r="B3" s="7">
-        <v>74.78</v>
-      </c>
-      <c r="C3" s="6">
-        <v>-1.8119747899159599E-2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.32541651896490409</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4.6923000000000004</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1.3247621878715758</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5.2920999999999996</v>
-      </c>
-      <c r="I3" s="6">
-        <v>5.4909560723512829E-3</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.96564275897930241</v>
-      </c>
-      <c r="K3" s="7">
-        <v>2.9102602105455486</v>
-      </c>
-      <c r="L3" s="6">
-        <v>-1.1088554729062339E-2</v>
-      </c>
-      <c r="M3" s="6">
-        <v>2.280322313120946</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1.6123300531674438</v>
-      </c>
-      <c r="O3" s="7">
-        <v>3.0471999999999997</v>
-      </c>
-      <c r="P3" s="7">
-        <v>-1.1088554729062339E-2</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>-6.1356338869238969E-2</v>
-      </c>
-      <c r="R3" s="6">
-        <v>2.7970836734693876</v>
-      </c>
-      <c r="S3" s="6">
-        <v>-4.4939547602537155E-2</v>
-      </c>
-      <c r="T3" s="7">
-        <v>-1.1088554729062339E-2</v>
-      </c>
-      <c r="U3" s="6">
-        <v>-4.9336741244005999E-2</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="6">
-        <v>5.4210000000000003</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>1.116833925573034</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>5.5198</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>1.2539915963080848</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="1">
-        <v>45012</v>
-      </c>
-      <c r="B4" s="5">
-        <v>77.22</v>
-      </c>
-      <c r="C4" s="16">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.36870000000000003</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.6923000000000004</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1.3248</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5.2305999999999999</v>
-      </c>
-      <c r="I4" s="6">
-        <v>-1.1599999999999999E-2</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.94279999999999997</v>
-      </c>
-      <c r="K4" s="7">
-        <v>2.9618000000000002</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="M4" s="6">
-        <v>2.3384999999999998</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1.58</v>
-      </c>
-      <c r="O4" s="5">
-        <v>3.0472000000000001</v>
-      </c>
-      <c r="P4" s="17">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>-4.3499999999999997E-2</v>
-      </c>
-      <c r="R4" s="6">
-        <v>2.7149999999999999</v>
-      </c>
-      <c r="S4" s="6">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="T4" s="17">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="U4" s="17">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="5"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="6">
-        <v>5.4210000000000003</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>1.1168</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>5.5198</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>1.254</v>
-      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="4"/>

--- a/commodity.xlsx
+++ b/commodity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25453b31f5bbcef5/Documentos/GitHub/oleo_combustivel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="480" documentId="8_{6AE083CF-99B3-4658-A82B-D08EB360D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11A1582F-D2BA-4841-A740-575A71658FA9}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="8_{6AE083CF-99B3-4658-A82B-D08EB360D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{528344C5-FD1F-4541-B163-88B3EC331D72}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDA25069-BBE2-4CBB-9E74-D9197BD75512}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DDA25069-BBE2-4CBB-9E74-D9197BD75512}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t/>
   </si>
   <si>
-    <t>Sinalização de Redução</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>% Acum Ult Atualização Preço - OCA1 Barcarena</t>
+  </si>
+  <si>
+    <t>Variação Acum</t>
   </si>
 </sst>
 </file>
@@ -1775,26 +1775,26 @@
   <dimension ref="A1:AC808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="16" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" customWidth="1"/>
-    <col min="22" max="22" width="24.42578125" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="16" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.109375" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" customWidth="1"/>
+    <col min="22" max="22" width="24.44140625" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="53.45" customHeight="1">
+    <row r="1" spans="1:29" ht="53.4" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1839,10 +1839,10 @@
         <v>13</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>14</v>
@@ -1851,10 +1851,10 @@
         <v>15</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>16</v>
@@ -1883,16 +1883,16 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B2" s="7">
-        <v>74.78</v>
+        <v>77.89</v>
       </c>
       <c r="C2" s="6">
-        <v>-1.8119747899159599E-2</v>
+        <v>-8.1497516872532927E-3</v>
       </c>
       <c r="D2" s="6">
-        <v>0.32541651896490409</v>
+        <v>0.38053881602268524</v>
       </c>
       <c r="E2" s="7">
         <v>4.6923000000000004</v>
@@ -1904,49 +1904,49 @@
         <v>1.3247621878715758</v>
       </c>
       <c r="H2" s="7">
-        <v>5.2920999999999996</v>
+        <v>5.1402000000000001</v>
       </c>
       <c r="I2" s="6">
-        <v>5.4909560723512829E-3</v>
+        <v>-4.6859267291455842E-3</v>
       </c>
       <c r="J2" s="6">
-        <v>0.96564275897930241</v>
+        <v>0.9092225977788424</v>
       </c>
       <c r="K2" s="7">
-        <v>2.9102602105455486</v>
+        <v>2.9336744154566379</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.1088554729062339E-2</v>
+        <v>-1.206744864781284E-2</v>
       </c>
       <c r="M2" s="6">
-        <v>2.280322313120946</v>
+        <v>2.3067138153431599</v>
       </c>
       <c r="N2" s="7">
-        <v>1.6123300531674438</v>
+        <v>1.5994617450654032</v>
       </c>
       <c r="O2" s="7">
         <v>3.0471999999999997</v>
       </c>
       <c r="P2" s="7">
-        <v>-1.1088554729062339E-2</v>
+        <v>-1.206744864781284E-2</v>
       </c>
       <c r="Q2" s="6">
-        <v>-6.1356338869238969E-2</v>
+        <v>-5.3000199986401153E-2</v>
       </c>
       <c r="R2" s="6">
-        <v>2.7970836734693876</v>
+        <v>2.714983673469388</v>
       </c>
       <c r="S2" s="6">
-        <v>-4.4939547602537155E-2</v>
+        <v>-3.7255705087740121E-2</v>
       </c>
       <c r="T2" s="7">
-        <v>-1.1088554729062339E-2</v>
+        <v>-1.206744864781284E-2</v>
       </c>
       <c r="U2" s="6">
-        <v>-4.9336741244005999E-2</v>
+        <v>3.1550544663454194E-2</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>24</v>

--- a/commodity.xlsx
+++ b/commodity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="8_{6AE083CF-99B3-4658-A82B-D08EB360D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{528344C5-FD1F-4541-B163-88B3EC331D72}"/>
+  <xr:revisionPtr revIDLastSave="492" documentId="8_{6AE083CF-99B3-4658-A82B-D08EB360D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1038AA28-F238-4176-A94C-10CCDB22F997}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DDA25069-BBE2-4CBB-9E74-D9197BD75512}"/>
   </bookViews>
@@ -1775,7 +1775,7 @@
   <dimension ref="A1:AC808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1883,16 +1883,16 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1">
-        <v>45014</v>
+        <v>45016</v>
       </c>
       <c r="B2" s="7">
-        <v>77.89</v>
+        <v>79.69</v>
       </c>
       <c r="C2" s="6">
-        <v>-8.1497516872532927E-3</v>
+        <v>1.425480463281148E-2</v>
       </c>
       <c r="D2" s="6">
-        <v>0.38053881602268524</v>
+        <v>0.41244239631336188</v>
       </c>
       <c r="E2" s="7">
         <v>4.6923000000000004</v>
@@ -1904,46 +1904,46 @@
         <v>1.3247621878715758</v>
       </c>
       <c r="H2" s="7">
-        <v>5.1402000000000001</v>
+        <v>5.0103999999999997</v>
       </c>
       <c r="I2" s="6">
-        <v>-4.6859267291455842E-3</v>
+        <v>-2.0794246404002514E-2</v>
       </c>
       <c r="J2" s="6">
-        <v>0.9092225977788424</v>
+        <v>0.8610110314600814</v>
       </c>
       <c r="K2" s="7">
-        <v>2.9336744154566379</v>
+        <v>2.9198059578970348</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.206744864781284E-2</v>
+        <v>-8.0921144953218782E-3</v>
       </c>
       <c r="M2" s="6">
-        <v>2.3067138153431599</v>
+        <v>2.2910818761040197</v>
       </c>
       <c r="N2" s="7">
-        <v>1.5994617450654032</v>
+        <v>1.6070588483145603</v>
       </c>
       <c r="O2" s="7">
         <v>3.0471999999999997</v>
       </c>
       <c r="P2" s="7">
-        <v>-1.206744864781284E-2</v>
+        <v>-8.0921144953218782E-3</v>
       </c>
       <c r="Q2" s="6">
-        <v>-5.3000199986401153E-2</v>
+        <v>-5.7303987576696191E-2</v>
       </c>
       <c r="R2" s="6">
-        <v>2.714983673469388</v>
+        <v>2.827783673469388</v>
       </c>
       <c r="S2" s="6">
-        <v>-3.7255705087740121E-2</v>
+        <v>-4.1806918516331337E-2</v>
       </c>
       <c r="T2" s="7">
-        <v>-1.206744864781284E-2</v>
+        <v>-8.0921144953218782E-3</v>
       </c>
       <c r="U2" s="6">
-        <v>3.1550544663454194E-2</v>
+        <v>-1.9731174719222477E-2</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>30</v>
@@ -1952,22 +1952,22 @@
         <v>24</v>
       </c>
       <c r="X2" s="6">
-        <v>5.4210000000000003</v>
+        <v>5.5594999999999999</v>
       </c>
       <c r="Y2" s="7">
         <v>0</v>
       </c>
       <c r="Z2" s="7">
-        <v>1.116833925573034</v>
+        <v>1.1709164746768645</v>
       </c>
       <c r="AA2" s="7">
-        <v>5.5198</v>
+        <v>5.4607000000000001</v>
       </c>
       <c r="AB2" s="7">
         <v>0</v>
       </c>
       <c r="AC2" s="7">
-        <v>1.2539915963080848</v>
+        <v>1.229858311888032</v>
       </c>
     </row>
     <row r="3" spans="1:29">
